--- a/csv/xlsx/HashSet.xlsx
+++ b/csv/xlsx/HashSet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guozn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GZN\HIT\个人文件\2020春软件构造\2020Labs\LIST\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{846DE0B0-0A7B-49EA-A9B9-A9351ADB830D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{014DAC5E-2B73-4844-A44F-392D7F5B3095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2796" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="HashSet" sheetId="1" r:id="rId1"/>
@@ -993,82 +993,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8.2000000000000003E-2</v>
+        <v>2.5</v>
       </c>
       <c r="B2">
-        <v>3.6999999999999998E-2</v>
+        <v>2.5169999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.08</v>
+        <v>2.532</v>
       </c>
       <c r="B3">
-        <v>0.13600000000000001</v>
+        <v>2.4769999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6.3E-2</v>
+        <v>2.6840000000000002</v>
       </c>
       <c r="B4">
-        <v>3.3000000000000002E-2</v>
+        <v>2.5230000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.3000000000000002E-2</v>
+        <v>2.6970000000000001</v>
       </c>
       <c r="B5">
-        <v>0.08</v>
+        <v>3.3029999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.08</v>
+        <v>2.6309999999999998</v>
       </c>
       <c r="B6">
-        <v>0.08</v>
+        <v>2.5150000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6.3E-2</v>
+        <v>2.956</v>
       </c>
       <c r="B7">
-        <v>8.5999999999999993E-2</v>
+        <v>3.016</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.03</v>
+        <v>3.2810000000000001</v>
       </c>
       <c r="B8">
-        <v>3.5000000000000003E-2</v>
+        <v>3.0510000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6.5000000000000002E-2</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="B9">
-        <v>0.08</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6.5000000000000002E-2</v>
+        <v>3.206</v>
       </c>
       <c r="B10">
-        <v>3.1E-2</v>
+        <v>2.9350000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6.7000000000000004E-2</v>
+        <v>2.89</v>
       </c>
       <c r="B11">
-        <v>8.6999999999999994E-2</v>
+        <v>2.887</v>
       </c>
     </row>
   </sheetData>
